--- a/Gross Sale Revenues - HSG.xlsx
+++ b/Gross Sale Revenues - HSG.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Duc\R Projects\Time Series\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\RProjects\Time_Series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48473C0F-73BC-4F7A-A82C-533C866B282F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0315A6F-5C74-4265-A5B6-1B6B20D57F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="37320" windowHeight="21840" xr2:uid="{8084141E-CCA0-4FD7-8FB9-0447BC4F8A45}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="37695" windowHeight="21840" xr2:uid="{8084141E-CCA0-4FD7-8FB9-0447BC4F8A45}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,203 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
-  <si>
-    <t>2008Q1</t>
-  </si>
-  <si>
-    <t>2008Q2</t>
-  </si>
-  <si>
-    <t>2008Q3</t>
-  </si>
-  <si>
-    <t>2008Q4</t>
-  </si>
-  <si>
-    <t>2009Q1</t>
-  </si>
-  <si>
-    <t>2009Q2</t>
-  </si>
-  <si>
-    <t>2009Q3</t>
-  </si>
-  <si>
-    <t>2009Q4</t>
-  </si>
-  <si>
-    <t>2010Q1</t>
-  </si>
-  <si>
-    <t>2010Q2</t>
-  </si>
-  <si>
-    <t>2010Q3</t>
-  </si>
-  <si>
-    <t>2010Q4</t>
-  </si>
-  <si>
-    <t>2011Q1</t>
-  </si>
-  <si>
-    <t>2011Q2</t>
-  </si>
-  <si>
-    <t>2011Q3</t>
-  </si>
-  <si>
-    <t>2011Q4</t>
-  </si>
-  <si>
-    <t>2012Q1</t>
-  </si>
-  <si>
-    <t>2012Q2</t>
-  </si>
-  <si>
-    <t>2012Q3</t>
-  </si>
-  <si>
-    <t>2012Q4</t>
-  </si>
-  <si>
-    <t>2013Q1</t>
-  </si>
-  <si>
-    <t>2013Q2</t>
-  </si>
-  <si>
-    <t>2013Q3</t>
-  </si>
-  <si>
-    <t>2013Q4</t>
-  </si>
-  <si>
-    <t>2014Q1</t>
-  </si>
-  <si>
-    <t>2014Q2</t>
-  </si>
-  <si>
-    <t>2014Q3</t>
-  </si>
-  <si>
-    <t>2014Q4</t>
-  </si>
-  <si>
-    <t>2015Q1</t>
-  </si>
-  <si>
-    <t>2015Q2</t>
-  </si>
-  <si>
-    <t>2015Q3</t>
-  </si>
-  <si>
-    <t>2015Q4</t>
-  </si>
-  <si>
-    <t>2016Q1</t>
-  </si>
-  <si>
-    <t>2016Q2</t>
-  </si>
-  <si>
-    <t>2016Q3</t>
-  </si>
-  <si>
-    <t>2016Q4</t>
-  </si>
-  <si>
-    <t>2017Q1</t>
-  </si>
-  <si>
-    <t>2017Q2</t>
-  </si>
-  <si>
-    <t>2017Q3</t>
-  </si>
-  <si>
-    <t>2017Q4</t>
-  </si>
-  <si>
-    <t>2018Q1</t>
-  </si>
-  <si>
-    <t>2018Q2</t>
-  </si>
-  <si>
-    <t>2018Q3</t>
-  </si>
-  <si>
-    <t>2018Q4</t>
-  </si>
-  <si>
-    <t>2019Q1</t>
-  </si>
-  <si>
-    <t>2019Q2</t>
-  </si>
-  <si>
-    <t>2019Q3</t>
-  </si>
-  <si>
-    <t>2019Q4</t>
-  </si>
-  <si>
-    <t>2020Q1</t>
-  </si>
-  <si>
-    <t>2020Q2</t>
-  </si>
-  <si>
-    <t>2020Q3</t>
-  </si>
-  <si>
-    <t>2020Q4</t>
-  </si>
-  <si>
-    <t>2021Q1</t>
-  </si>
-  <si>
-    <t>2021Q2</t>
-  </si>
-  <si>
-    <t>2021Q3</t>
-  </si>
-  <si>
-    <t>2021Q4</t>
-  </si>
-  <si>
-    <t>2022Q1</t>
-  </si>
-  <si>
-    <t>2022Q2</t>
-  </si>
-  <si>
-    <t>2022Q3</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Gross_Sale_Revenues</t>
   </si>
@@ -581,542 +390,362 @@
   <dimension ref="A1:E127"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
+      <c r="A2">
         <v>540323</v>
       </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
+      <c r="A3">
         <v>939939</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
+      <c r="A4">
         <v>579078</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
+      <c r="A5">
         <v>662602</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
+      <c r="A6">
         <v>566686</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
+      <c r="A7">
         <v>779794</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
+      <c r="A8">
         <v>837567</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
+      <c r="A9">
         <v>837567</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
+      <c r="A10">
         <v>1093142</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
+      <c r="A11">
         <v>1379089</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
+      <c r="A12">
         <v>1415196</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
+      <c r="A13">
         <v>1603930</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
+      <c r="A14">
         <v>1858744</v>
       </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15">
+      <c r="A15">
         <v>1858744</v>
       </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16">
+      <c r="A16">
         <v>2393637</v>
       </c>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17">
+      <c r="A17">
         <v>2323289</v>
       </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18">
+      <c r="A18">
         <v>2531174</v>
       </c>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19">
+      <c r="A19">
         <v>2540443</v>
       </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20">
+      <c r="A20">
         <v>2753538</v>
       </c>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21">
+      <c r="A21">
         <v>2285833</v>
       </c>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22">
+      <c r="A22">
         <v>2699783</v>
       </c>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23">
+      <c r="A23">
         <v>3265557</v>
       </c>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24">
+      <c r="A24">
         <v>3205150</v>
       </c>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25">
+      <c r="A25">
         <v>3300844</v>
       </c>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26">
+      <c r="A26">
         <v>3343584</v>
       </c>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27">
+      <c r="A27">
         <v>4327838</v>
       </c>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28">
+      <c r="A28">
         <v>4032808</v>
       </c>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29">
+      <c r="A29">
         <v>4419678</v>
       </c>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30">
+      <c r="A30">
         <v>4276935</v>
       </c>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31">
+      <c r="A31">
         <v>4835354</v>
       </c>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32">
+      <c r="A32">
         <v>3937928</v>
       </c>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33">
+      <c r="A33">
         <v>3918906</v>
       </c>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34">
+      <c r="A34">
         <v>4438783</v>
       </c>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35">
+      <c r="A35">
         <v>4610629</v>
       </c>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36">
+      <c r="A36">
         <v>5038181</v>
       </c>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37">
+      <c r="A37">
         <v>5793112</v>
       </c>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38">
+      <c r="A38">
         <v>6271069</v>
       </c>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39">
+      <c r="A39">
         <v>7280384</v>
       </c>
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40">
+      <c r="A40">
         <v>6992419</v>
       </c>
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41">
+      <c r="A41">
         <v>7929841</v>
       </c>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42">
+      <c r="A42">
         <v>7728558</v>
       </c>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43">
+      <c r="A43">
         <v>10350829</v>
       </c>
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44">
+      <c r="A44">
         <v>8561116</v>
       </c>
       <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45">
+      <c r="A45">
         <v>7557609</v>
       </c>
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B46">
+      <c r="A46">
         <v>6922420</v>
       </c>
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47">
+      <c r="A47">
         <v>7243650</v>
       </c>
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B48">
+      <c r="A48">
         <v>6357625</v>
       </c>
       <c r="E48" s="1"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B49">
+      <c r="A49">
         <v>6597689</v>
       </c>
       <c r="E49" s="1"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B50">
+      <c r="A50">
         <v>6597689</v>
       </c>
       <c r="E50" s="1"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B51">
+      <c r="A51">
         <v>5786706</v>
       </c>
       <c r="E51" s="1"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B52">
+      <c r="A52">
         <v>6954874</v>
       </c>
       <c r="E52" s="1"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B53">
+      <c r="A53">
         <v>8437961</v>
       </c>
       <c r="E53" s="1"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B54">
+      <c r="A54">
         <v>9167199</v>
       </c>
       <c r="E54" s="1"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B55">
+      <c r="A55">
         <v>13035928</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B56">
+      <c r="A56">
         <v>15922447</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B57">
+      <c r="A57">
         <v>17005852</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B58">
+      <c r="A58">
         <v>12697837</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B59">
+      <c r="A59">
         <v>12233957</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B60">
+      <c r="A60">
         <v>8152489</v>
       </c>
     </row>
@@ -1328,6 +957,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B4F9EF4947020449AB430069B66746EC" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dc5d317ba5aa50d0cf09bf825460b671">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="928ed85d-a3aa-46c6-9c31-6d389f29c180" xmlns:ns4="c44dedd1-3cf9-4f0d-85cd-8270905e7a3e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="00a85edf74d044f143033e0957d708d4" ns3:_="" ns4:_="">
     <xsd:import namespace="928ed85d-a3aa-46c6-9c31-6d389f29c180"/>
@@ -1512,22 +1156,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA63C5FD-9670-4AD2-9D4A-BC460DDF9C96}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="928ed85d-a3aa-46c6-9c31-6d389f29c180"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="c44dedd1-3cf9-4f0d-85cd-8270905e7a3e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43007D68-129E-454F-8AA7-DAEF6A523575}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEBCE569-6794-432D-A911-7EDA479ECEA2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1544,29 +1198,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43007D68-129E-454F-8AA7-DAEF6A523575}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA63C5FD-9670-4AD2-9D4A-BC460DDF9C96}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="928ed85d-a3aa-46c6-9c31-6d389f29c180"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="c44dedd1-3cf9-4f0d-85cd-8270905e7a3e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>